--- a/seattledailydata_full.xlsx
+++ b/seattledailydata_full.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Average of HOURLYRelativeHumidity</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Average of GHI</t>
   </si>
 </sst>
 </file>
@@ -835,15 +838,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="G351" sqref="G351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -853,8 +856,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="C2">
         <v>1.032432432</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>70.583333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42737</v>
       </c>
@@ -875,8 +884,11 @@
       <c r="C3">
         <v>-0.18333333299999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>72.833333333333329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42738</v>
       </c>
@@ -886,8 +898,11 @@
       <c r="C4">
         <v>-1.016666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>76.166666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42739</v>
       </c>
@@ -897,8 +912,11 @@
       <c r="C5">
         <v>-0.52500000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>78.916666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42740</v>
       </c>
@@ -908,8 +926,11 @@
       <c r="C6">
         <v>-2.4708333329999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>76.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42741</v>
       </c>
@@ -919,8 +940,11 @@
       <c r="C7">
         <v>-1.6479999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>53.291666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42742</v>
       </c>
@@ -930,8 +954,11 @@
       <c r="C8">
         <v>0.89583333300000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>23.833333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42743</v>
       </c>
@@ -941,8 +968,11 @@
       <c r="C9">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>5.791666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42744</v>
       </c>
@@ -952,8 +982,11 @@
       <c r="C10">
         <v>3.9205882349999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>28.541666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42745</v>
       </c>
@@ -963,8 +996,11 @@
       <c r="C11">
         <v>2.372972973</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>19.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42746</v>
       </c>
@@ -974,8 +1010,11 @@
       <c r="C12">
         <v>0.204166667</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>36.791666666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42747</v>
       </c>
@@ -985,8 +1024,11 @@
       <c r="C13">
         <v>-0.76249999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>80.333333333333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42748</v>
       </c>
@@ -996,8 +1038,11 @@
       <c r="C14">
         <v>0.36923076900000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>67.166666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42749</v>
       </c>
@@ -1007,8 +1052,11 @@
       <c r="C15">
         <v>0.74583333299999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>82.208333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42750</v>
       </c>
@@ -1018,8 +1066,11 @@
       <c r="C16">
         <v>0.57916666699999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42751</v>
       </c>
@@ -1029,8 +1080,11 @@
       <c r="C17">
         <v>3.9166666669999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>63.416666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42752</v>
       </c>
@@ -1040,8 +1094,11 @@
       <c r="C18">
         <v>6.3033333330000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>11.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42753</v>
       </c>
@@ -1051,8 +1108,11 @@
       <c r="C19">
         <v>8.1757575760000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>31.666666666666668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42754</v>
       </c>
@@ -1062,8 +1122,11 @@
       <c r="C20">
         <v>7.5125000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42755</v>
       </c>
@@ -1073,8 +1136,11 @@
       <c r="C21">
         <v>6.7125000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>35.708333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42756</v>
       </c>
@@ -1084,8 +1150,11 @@
       <c r="C22">
         <v>7.2916666670000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>67.166666666666671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42757</v>
       </c>
@@ -1095,8 +1164,11 @@
       <c r="C23">
         <v>6.0333333329999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42758</v>
       </c>
@@ -1106,8 +1178,11 @@
       <c r="C24">
         <v>3.9083333329999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>89.791666666666671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42759</v>
       </c>
@@ -1117,8 +1192,11 @@
       <c r="C25">
         <v>2.5687500000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>44.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42760</v>
       </c>
@@ -1128,8 +1206,11 @@
       <c r="C26">
         <v>4.6666666670000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42761</v>
       </c>
@@ -1139,8 +1220,11 @@
       <c r="C27">
         <v>6.9533333329999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42762</v>
       </c>
@@ -1150,8 +1234,11 @@
       <c r="C28">
         <v>7.3541666670000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>95.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42763</v>
       </c>
@@ -1161,8 +1248,11 @@
       <c r="C29">
         <v>6.4625000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42764</v>
       </c>
@@ -1172,8 +1262,11 @@
       <c r="C30">
         <v>6.8814814809999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>29.041666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42765</v>
       </c>
@@ -1183,8 +1276,11 @@
       <c r="C31">
         <v>6.9166666670000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>33.916666666666664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42766</v>
       </c>
@@ -1194,8 +1290,11 @@
       <c r="C32">
         <v>5.1666666670000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>93.041666666666671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42767</v>
       </c>
@@ -1205,8 +1304,11 @@
       <c r="C33">
         <v>2.6583333329999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>99.041666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42768</v>
       </c>
@@ -1216,8 +1318,11 @@
       <c r="C34">
         <v>3.0444444439999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>94.458333333333329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42769</v>
       </c>
@@ -1227,8 +1332,11 @@
       <c r="C35">
         <v>3.0142857140000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>25.708333333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42770</v>
       </c>
@@ -1238,8 +1346,11 @@
       <c r="C36">
         <v>6.0722222219999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>19.541666666666668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42771</v>
       </c>
@@ -1249,8 +1360,11 @@
       <c r="C37">
         <v>2.3743589740000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42772</v>
       </c>
@@ -1260,8 +1374,11 @@
       <c r="C38">
         <v>1.428571429</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>16.166666666666668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42773</v>
       </c>
@@ -1271,8 +1388,11 @@
       <c r="C39">
         <v>2.4851851850000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>67.208333333333329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42774</v>
       </c>
@@ -1282,8 +1402,11 @@
       <c r="C40">
         <v>3.447058824</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>25.291666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42775</v>
       </c>
@@ -1293,8 +1416,11 @@
       <c r="C41">
         <v>9.5386363640000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>51.958333333333336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42776</v>
       </c>
@@ -1304,8 +1430,11 @@
       <c r="C42">
         <v>6.9666666670000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>51.625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42777</v>
       </c>
@@ -1315,8 +1444,11 @@
       <c r="C43">
         <v>5.9612903230000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42778</v>
       </c>
@@ -1326,8 +1458,11 @@
       <c r="C44">
         <v>4.8541666670000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>103.70833333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42779</v>
       </c>
@@ -1337,8 +1472,11 @@
       <c r="C45">
         <v>6.0919999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>132.04166666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42780</v>
       </c>
@@ -1348,8 +1486,11 @@
       <c r="C46">
         <v>7.6166666669999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>87.291666666666671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42781</v>
       </c>
@@ -1359,8 +1500,11 @@
       <c r="C47">
         <v>9.5314285709999993</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42782</v>
       </c>
@@ -1370,8 +1514,11 @@
       <c r="C48">
         <v>10.396875</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>103.58333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42783</v>
       </c>
@@ -1381,8 +1528,11 @@
       <c r="C49">
         <v>8.8208333329999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>129.54166666666666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42784</v>
       </c>
@@ -1392,8 +1542,11 @@
       <c r="C50">
         <v>6.802941176</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>29.833333333333332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42785</v>
       </c>
@@ -1403,8 +1556,11 @@
       <c r="C51">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42786</v>
       </c>
@@ -1414,8 +1570,11 @@
       <c r="C52">
         <v>6.844117647</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>33.625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42787</v>
       </c>
@@ -1425,8 +1584,11 @@
       <c r="C53">
         <v>6.5233333330000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>33.916666666666664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42788</v>
       </c>
@@ -1436,8 +1598,11 @@
       <c r="C54">
         <v>4.3285714290000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>111.16666666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42789</v>
       </c>
@@ -1447,8 +1612,11 @@
       <c r="C55">
         <v>2.770588235</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>57.625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42790</v>
       </c>
@@ -1458,8 +1626,11 @@
       <c r="C56">
         <v>4.332142857</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>99.708333333333329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42791</v>
       </c>
@@ -1469,8 +1640,11 @@
       <c r="C57">
         <v>4.0379310339999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>90.666666666666671</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42792</v>
       </c>
@@ -1480,8 +1654,11 @@
       <c r="C58">
         <v>3.8057142860000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>46.708333333333336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42793</v>
       </c>
@@ -1491,8 +1668,11 @@
       <c r="C59">
         <v>2.272340426</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>58.125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42794</v>
       </c>
@@ -1502,8 +1682,11 @@
       <c r="C60">
         <v>4.6787878789999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>108.79166666666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42795</v>
       </c>
@@ -1513,8 +1696,11 @@
       <c r="C61">
         <v>7.5037037040000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42796</v>
       </c>
@@ -1524,8 +1710,11 @@
       <c r="C62">
         <v>7.3081081079999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>43.291666666666664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42797</v>
       </c>
@@ -1535,8 +1724,11 @@
       <c r="C63">
         <v>7.9333333330000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>46.333333333333336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42798</v>
       </c>
@@ -1546,8 +1738,11 @@
       <c r="C64">
         <v>4.87</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>112.45833333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42799</v>
       </c>
@@ -1557,8 +1752,11 @@
       <c r="C65">
         <v>4.1741935479999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>69.875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42800</v>
       </c>
@@ -1568,8 +1766,11 @@
       <c r="C66">
         <v>3.6242424240000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>101.91666666666667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42801</v>
       </c>
@@ -1579,8 +1780,11 @@
       <c r="C67">
         <v>4.4692307690000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>37.916666666666664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42802</v>
       </c>
@@ -1590,8 +1794,11 @@
       <c r="C68">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>52.541666666666664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42803</v>
       </c>
@@ -1601,8 +1808,11 @@
       <c r="C69">
         <v>5.7078947370000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>35.625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42804</v>
       </c>
@@ -1612,8 +1822,11 @@
       <c r="C70">
         <v>9.6962962959999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>114.58333333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42805</v>
       </c>
@@ -1623,8 +1836,11 @@
       <c r="C71">
         <v>8.390625</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>53.291666666666664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42806</v>
       </c>
@@ -1634,8 +1850,11 @@
       <c r="C72">
         <v>9.6103448280000006</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>49.458333333333336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42807</v>
       </c>
@@ -1645,8 +1864,11 @@
       <c r="C73">
         <v>10.53783784</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>24.458333333333332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>42808</v>
       </c>
@@ -1656,8 +1878,11 @@
       <c r="C74">
         <v>11.85526316</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>60.041666666666664</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42809</v>
       </c>
@@ -1667,8 +1892,11 @@
       <c r="C75">
         <v>9.7888888890000008</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>60.083333333333336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42810</v>
       </c>
@@ -1678,8 +1906,11 @@
       <c r="C76">
         <v>7.516</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42811</v>
       </c>
@@ -1689,8 +1920,11 @@
       <c r="C77">
         <v>6.4103448280000004</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>47.083333333333336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42812</v>
       </c>
@@ -1700,8 +1934,11 @@
       <c r="C78">
         <v>8.4533333329999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>90.458333333333329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42813</v>
       </c>
@@ -1711,8 +1948,11 @@
       <c r="C79">
         <v>6.0666666669999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>211.33333333333334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>42814</v>
       </c>
@@ -1722,8 +1962,11 @@
       <c r="C80">
         <v>8.0416666669999994</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>114.66666666666667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>42815</v>
       </c>
@@ -1733,8 +1976,11 @@
       <c r="C81">
         <v>9.9291666670000005</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>91.083333333333329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>42816</v>
       </c>
@@ -1744,8 +1990,11 @@
       <c r="C82">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>123.04166666666667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>42817</v>
       </c>
@@ -1755,8 +2004,11 @@
       <c r="C83">
         <v>9.0719999999999992</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>161.16666666666666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>42818</v>
       </c>
@@ -1766,8 +2018,11 @@
       <c r="C84">
         <v>9.2541666669999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>94.916666666666671</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>42819</v>
       </c>
@@ -1777,8 +2032,11 @@
       <c r="C85">
         <v>8.7458333330000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>163.125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42820</v>
       </c>
@@ -1788,8 +2046,11 @@
       <c r="C86">
         <v>8.1903225810000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>80.708333333333329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42821</v>
       </c>
@@ -1799,8 +2060,11 @@
       <c r="C87">
         <v>8.9879999999999995</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>152.83333333333334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42822</v>
       </c>
@@ -1810,8 +2074,11 @@
       <c r="C88">
         <v>9.7461538460000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>84.541666666666671</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42823</v>
       </c>
@@ -1821,8 +2088,11 @@
       <c r="C89">
         <v>9.9459459460000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>139.125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42824</v>
       </c>
@@ -1832,8 +2102,11 @@
       <c r="C90">
         <v>9.0066666669999993</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>196.66666666666666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42825</v>
       </c>
@@ -1843,8 +2116,11 @@
       <c r="C91">
         <v>8.5575757580000005</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>175.54166666666666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42826</v>
       </c>
@@ -1854,8 +2130,11 @@
       <c r="C92">
         <v>10.61935484</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>81.291666666666671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42827</v>
       </c>
@@ -1865,8 +2144,11 @@
       <c r="C93">
         <v>8.3181818179999993</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>172.875</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42828</v>
       </c>
@@ -1876,8 +2158,11 @@
       <c r="C94">
         <v>8.4035714289999994</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>206.58333333333334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42829</v>
       </c>
@@ -1887,8 +2172,11 @@
       <c r="C95">
         <v>10.945833329999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>146.45833333333334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42830</v>
       </c>
@@ -1898,8 +2186,11 @@
       <c r="C96">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>71.041666666666671</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42831</v>
       </c>
@@ -1909,8 +2200,11 @@
       <c r="C97">
         <v>11.758333329999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>142.125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42832</v>
       </c>
@@ -1920,8 +2214,11 @@
       <c r="C98">
         <v>10.851851849999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>79.541666666666671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42833</v>
       </c>
@@ -1931,8 +2228,11 @@
       <c r="C99">
         <v>7.9458333330000004</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>168.16666666666666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42834</v>
       </c>
@@ -1942,8 +2242,11 @@
       <c r="C100">
         <v>9.1208333330000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>198.41666666666666</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42835</v>
       </c>
@@ -1953,8 +2256,11 @@
       <c r="C101">
         <v>8.2720000000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>158.45833333333334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42836</v>
       </c>
@@ -1964,8 +2270,11 @@
       <c r="C102">
         <v>9.1666666669999994</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>201.66666666666666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42837</v>
       </c>
@@ -1975,8 +2284,11 @@
       <c r="C103">
         <v>10.65357143</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>150.95833333333334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42838</v>
       </c>
@@ -1986,8 +2298,11 @@
       <c r="C104">
         <v>8.8239999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>167.41666666666666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42839</v>
       </c>
@@ -1997,8 +2312,11 @@
       <c r="C105">
         <v>8.0359999999999996</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>192.08333333333334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42840</v>
       </c>
@@ -2008,8 +2326,11 @@
       <c r="C106">
         <v>9.6291666669999998</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>271.95833333333331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42841</v>
       </c>
@@ -2019,8 +2340,11 @@
       <c r="C107">
         <v>12.266666669999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>207.375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42842</v>
       </c>
@@ -2030,8 +2354,11 @@
       <c r="C108">
         <v>12.4625</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>133.79166666666666</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42843</v>
       </c>
@@ -2041,8 +2368,11 @@
       <c r="C109">
         <v>11.385714289999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>214.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42844</v>
       </c>
@@ -2052,8 +2382,11 @@
       <c r="C110">
         <v>10.332000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>110.125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42845</v>
       </c>
@@ -2063,8 +2396,11 @@
       <c r="C111">
         <v>10.817857139999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>214.125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42846</v>
       </c>
@@ -2074,8 +2410,11 @@
       <c r="C112">
         <v>13.43333333</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>294.91666666666669</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42847</v>
       </c>
@@ -2085,8 +2424,11 @@
       <c r="C113">
         <v>13.262499999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>112.125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42848</v>
       </c>
@@ -2096,8 +2438,11 @@
       <c r="C114">
         <v>9.6541666670000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>114.16666666666667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42849</v>
       </c>
@@ -2107,8 +2452,11 @@
       <c r="C115">
         <v>10.26785714</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>200.08333333333334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42850</v>
       </c>
@@ -2118,8 +2466,11 @@
       <c r="C116">
         <v>10.91</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>170.08333333333334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42851</v>
       </c>
@@ -2129,8 +2480,11 @@
       <c r="C117">
         <v>10.44571429</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>165.79166666666666</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42852</v>
       </c>
@@ -2140,8 +2494,11 @@
       <c r="C118">
         <v>9.9758620689999997</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>275.04166666666669</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42853</v>
       </c>
@@ -2151,8 +2508,11 @@
       <c r="C119">
         <v>11.093103449999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>279.54166666666669</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42854</v>
       </c>
@@ -2162,8 +2522,11 @@
       <c r="C120">
         <v>10.03448276</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>124.41666666666667</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42855</v>
       </c>
@@ -2173,8 +2536,11 @@
       <c r="C121">
         <v>10.375</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>200.16666666666666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42856</v>
       </c>
@@ -2184,8 +2550,11 @@
       <c r="C122">
         <v>9.0548387100000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>93.166666666666671</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42857</v>
       </c>
@@ -2195,8 +2564,11 @@
       <c r="C123">
         <v>12.225</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>162.45833333333334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>42858</v>
       </c>
@@ -2206,8 +2578,11 @@
       <c r="C124">
         <v>16.57741935</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>242.33333333333334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>42859</v>
       </c>
@@ -2217,8 +2592,11 @@
       <c r="C125">
         <v>16.545454549999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>191.70833333333334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>42860</v>
       </c>
@@ -2228,8 +2606,11 @@
       <c r="C126">
         <v>13.048387099999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>192.66666666666666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>42861</v>
       </c>
@@ -2239,8 +2620,11 @@
       <c r="C127">
         <v>10.24</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>311.20833333333331</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>42862</v>
       </c>
@@ -2250,8 +2634,11 @@
       <c r="C128">
         <v>11.726923080000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>295.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42863</v>
       </c>
@@ -2261,8 +2648,11 @@
       <c r="C129">
         <v>12.79166667</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>210.41666666666666</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42864</v>
       </c>
@@ -2272,8 +2662,11 @@
       <c r="C130">
         <v>14.675000000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>303.625</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42865</v>
       </c>
@@ -2283,8 +2676,11 @@
       <c r="C131">
         <v>16.007692309999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>281.125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42866</v>
       </c>
@@ -2294,8 +2690,11 @@
       <c r="C132">
         <v>11.866666670000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>105.66666666666667</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42867</v>
       </c>
@@ -2305,8 +2704,11 @@
       <c r="C133">
         <v>9.4269230769999997</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>183.29166666666666</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>42868</v>
       </c>
@@ -2316,8 +2718,11 @@
       <c r="C134">
         <v>9.9187499999999993</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>258.375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42869</v>
       </c>
@@ -2327,8 +2732,11 @@
       <c r="C135">
         <v>11.167857140000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>203.125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>42870</v>
       </c>
@@ -2338,8 +2746,11 @@
       <c r="C136">
         <v>9.5625</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>125.66666666666667</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>42871</v>
       </c>
@@ -2349,8 +2760,11 @@
       <c r="C137">
         <v>9.168571429</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>169.08333333333334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>42872</v>
       </c>
@@ -2360,8 +2774,11 @@
       <c r="C138">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>196.54166666666666</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>42873</v>
       </c>
@@ -2371,8 +2788,11 @@
       <c r="C139">
         <v>13.920833330000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>224.33333333333334</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>42874</v>
       </c>
@@ -2382,8 +2802,11 @@
       <c r="C140">
         <v>16.092307689999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>293.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>42875</v>
       </c>
@@ -2393,8 +2816,11 @@
       <c r="C141">
         <v>17.649999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>329.83333333333331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>42876</v>
       </c>
@@ -2404,8 +2830,11 @@
       <c r="C142">
         <v>18.233333330000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>323.20833333333331</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>42877</v>
       </c>
@@ -2415,8 +2844,11 @@
       <c r="C143">
         <v>20.712</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>329.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>42878</v>
       </c>
@@ -2426,8 +2858,11 @@
       <c r="C144">
         <v>18.3125</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>336.75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>42879</v>
       </c>
@@ -2437,8 +2872,11 @@
       <c r="C145">
         <v>13.425000000000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>214.16666666666666</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>42880</v>
       </c>
@@ -2448,8 +2886,11 @@
       <c r="C146">
         <v>15.18333333</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>42881</v>
       </c>
@@ -2459,8 +2900,11 @@
       <c r="C147">
         <v>19.412500000000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>347.20833333333331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>42882</v>
       </c>
@@ -2470,8 +2914,11 @@
       <c r="C148">
         <v>21.375</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>346.16666666666669</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>42883</v>
       </c>
@@ -2481,8 +2928,11 @@
       <c r="C149">
         <v>21.0625</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>343.20833333333331</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>42884</v>
       </c>
@@ -2492,8 +2942,11 @@
       <c r="C150">
         <v>15.978571430000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>272.41666666666669</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>42885</v>
       </c>
@@ -2503,8 +2956,11 @@
       <c r="C151">
         <v>13.294444439999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>101.66666666666667</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>42886</v>
       </c>
@@ -2514,8 +2970,11 @@
       <c r="C152">
         <v>15.7137931</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>244.41666666666666</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>42887</v>
       </c>
@@ -2525,8 +2984,11 @@
       <c r="C153">
         <v>16.005555560000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>267.125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>42888</v>
       </c>
@@ -2536,8 +2998,11 @@
       <c r="C154">
         <v>17.154166669999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>290.875</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>42889</v>
       </c>
@@ -2547,8 +3012,11 @@
       <c r="C155">
         <v>15.391666669999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>229.75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>42890</v>
       </c>
@@ -2558,8 +3026,11 @@
       <c r="C156">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>258.95833333333331</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>42891</v>
       </c>
@@ -2569,8 +3040,11 @@
       <c r="C157">
         <v>16.195833329999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>350.08333333333331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>42892</v>
       </c>
@@ -2580,8 +3054,11 @@
       <c r="C158">
         <v>20.108333330000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>338.58333333333331</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>42893</v>
       </c>
@@ -2591,8 +3068,11 @@
       <c r="C159">
         <v>19.8125</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>288.45833333333331</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>42894</v>
       </c>
@@ -2602,8 +3082,11 @@
       <c r="C160">
         <v>14.548484849999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>214.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>42895</v>
       </c>
@@ -2613,8 +3096,11 @@
       <c r="C161">
         <v>13.483333330000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>245.20833333333334</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>42896</v>
       </c>
@@ -2624,8 +3110,11 @@
       <c r="C162">
         <v>14.579166669999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>353.20833333333331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>42897</v>
       </c>
@@ -2635,8 +3124,11 @@
       <c r="C163">
         <v>15.992307690000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>42898</v>
       </c>
@@ -2646,8 +3138,11 @@
       <c r="C164">
         <v>14.25517241</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>42899</v>
       </c>
@@ -2657,8 +3152,11 @@
       <c r="C165">
         <v>13.675862070000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>174.16666666666666</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>42900</v>
       </c>
@@ -2668,8 +3166,11 @@
       <c r="C166">
         <v>14.725</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>240.41666666666666</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>42901</v>
       </c>
@@ -2679,8 +3180,11 @@
       <c r="C167">
         <v>14.85294118</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>127.875</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>42902</v>
       </c>
@@ -2690,8 +3194,11 @@
       <c r="C168">
         <v>15.503846149999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>299.83333333333331</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>42903</v>
       </c>
@@ -2701,8 +3208,11 @@
       <c r="C169">
         <v>14.38846154</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>195.29166666666666</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>42904</v>
       </c>
@@ -2712,8 +3222,11 @@
       <c r="C170">
         <v>16.228571429999999</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>111.16666666666667</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>42905</v>
       </c>
@@ -2723,8 +3236,11 @@
       <c r="C171">
         <v>17.321428569999998</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>227.91666666666666</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>42906</v>
       </c>
@@ -2734,8 +3250,11 @@
       <c r="C172">
         <v>17.427027030000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>108.95833333333333</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>42907</v>
       </c>
@@ -2745,8 +3264,11 @@
       <c r="C173">
         <v>15.457142859999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>343.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>42908</v>
       </c>
@@ -2756,8 +3278,11 @@
       <c r="C174">
         <v>17.770833329999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>365.20833333333331</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>42909</v>
       </c>
@@ -2767,8 +3292,11 @@
       <c r="C175">
         <v>20.466666669999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>361.95833333333331</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>42910</v>
       </c>
@@ -2778,8 +3306,11 @@
       <c r="C176">
         <v>23.720833330000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>360.95833333333331</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>42911</v>
       </c>
@@ -2789,8 +3320,11 @@
       <c r="C177">
         <v>25.512499999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>351.33333333333331</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>42912</v>
       </c>
@@ -2800,8 +3334,11 @@
       <c r="C178">
         <v>17.84642857</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>268.54166666666669</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>42913</v>
       </c>
@@ -2811,8 +3348,11 @@
       <c r="C179">
         <v>16.664000000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>261.29166666666669</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>42914</v>
       </c>
@@ -2822,8 +3362,11 @@
       <c r="C180">
         <v>16.161538459999999</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>214.04166666666666</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42915</v>
       </c>
@@ -2833,8 +3376,11 @@
       <c r="C181">
         <v>18.637499999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>345.83333333333331</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42916</v>
       </c>
@@ -2844,8 +3390,11 @@
       <c r="C182">
         <v>20.516666669999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>348.41666666666669</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42917</v>
       </c>
@@ -2855,8 +3404,11 @@
       <c r="C183">
         <v>16.633333329999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>247.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42918</v>
       </c>
@@ -2866,8 +3418,11 @@
       <c r="C184">
         <v>17.889285709999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>317.41666666666669</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42919</v>
       </c>
@@ -2877,8 +3432,11 @@
       <c r="C185">
         <v>17.065517239999998</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>261.875</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42920</v>
       </c>
@@ -2888,8 +3446,11 @@
       <c r="C186">
         <v>18.770833329999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>317.70833333333331</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42921</v>
       </c>
@@ -2899,8 +3460,11 @@
       <c r="C187">
         <v>21.362500000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>349.75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>42922</v>
       </c>
@@ -2910,8 +3474,11 @@
       <c r="C188">
         <v>21.087499999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>344.66666666666669</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>42923</v>
       </c>
@@ -2921,8 +3488,11 @@
       <c r="C189">
         <v>17.992307690000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>340.66666666666669</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>42924</v>
       </c>
@@ -2932,8 +3502,11 @@
       <c r="C190">
         <v>20.333333329999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>349.33333333333331</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>42925</v>
       </c>
@@ -2943,8 +3516,11 @@
       <c r="C191">
         <v>20.675000000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>326.125</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>42926</v>
       </c>
@@ -2954,8 +3530,11 @@
       <c r="C192">
         <v>18.273076920000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>42927</v>
       </c>
@@ -2965,8 +3544,11 @@
       <c r="C193">
         <v>17.20333333</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>334.25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>42928</v>
       </c>
@@ -2976,8 +3558,11 @@
       <c r="C194">
         <v>18.841666669999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>335.79166666666669</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>42929</v>
       </c>
@@ -2987,8 +3572,11 @@
       <c r="C195">
         <v>18.23076923</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>240.54166666666666</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>42930</v>
       </c>
@@ -2998,8 +3586,11 @@
       <c r="C196">
         <v>19.466666669999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>343.83333333333331</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>42931</v>
       </c>
@@ -3009,8 +3600,11 @@
       <c r="C197">
         <v>18.662500000000001</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>336.83333333333331</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>42932</v>
       </c>
@@ -3020,8 +3614,11 @@
       <c r="C198">
         <v>17.534615380000002</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>330.58333333333331</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>42933</v>
       </c>
@@ -3031,8 +3628,11 @@
       <c r="C199">
         <v>19.074999999999999</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>338.66666666666669</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>42934</v>
       </c>
@@ -3042,8 +3642,11 @@
       <c r="C200">
         <v>20.858333330000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>336.29166666666669</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>42935</v>
       </c>
@@ -3053,8 +3656,11 @@
       <c r="C201">
         <v>18.954166669999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>331.16666666666669</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>42936</v>
       </c>
@@ -3064,8 +3670,11 @@
       <c r="C202">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>291.875</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>42937</v>
       </c>
@@ -3075,8 +3684,11 @@
       <c r="C203">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>258.70833333333331</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>42938</v>
       </c>
@@ -3086,8 +3698,11 @@
       <c r="C204">
         <v>22.362500000000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>299.75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>42939</v>
       </c>
@@ -3097,8 +3712,11 @@
       <c r="C205">
         <v>19.741666670000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>254.45833333333334</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>42940</v>
       </c>
@@ -3108,8 +3726,11 @@
       <c r="C206">
         <v>20.741666670000001</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>336.45833333333331</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>42941</v>
       </c>
@@ -3119,8 +3740,11 @@
       <c r="C207">
         <v>22.524999999999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>331.66666666666669</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>42942</v>
       </c>
@@ -3130,8 +3754,11 @@
       <c r="C208">
         <v>21.212499999999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>323.45833333333331</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>42943</v>
       </c>
@@ -3141,8 +3768,11 @@
       <c r="C209">
         <v>16.754838710000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>175.08333333333334</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>42944</v>
       </c>
@@ -3152,8 +3782,11 @@
       <c r="C210">
         <v>19.161538459999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>307.375</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>42945</v>
       </c>
@@ -3163,8 +3796,11 @@
       <c r="C211">
         <v>20.766666669999999</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>323.125</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>42946</v>
       </c>
@@ -3174,8 +3810,11 @@
       <c r="C212">
         <v>20.288888889999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>303.875</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>42947</v>
       </c>
@@ -3185,8 +3824,11 @@
       <c r="C213">
         <v>21.970833330000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>328.66666666666669</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>42948</v>
       </c>
@@ -3196,8 +3838,11 @@
       <c r="C214">
         <v>23.774999999999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>309.91666666666669</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>42949</v>
       </c>
@@ -3207,8 +3852,11 @@
       <c r="C215">
         <v>25.55</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>279.91666666666669</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>42950</v>
       </c>
@@ -3218,8 +3866,11 @@
       <c r="C216">
         <v>26.158333330000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>276.875</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>42951</v>
       </c>
@@ -3229,8 +3880,11 @@
       <c r="C217">
         <v>25.416666670000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>294.70833333333331</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>42952</v>
       </c>
@@ -3240,8 +3894,11 @@
       <c r="C218">
         <v>20.391666669999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>253.45833333333334</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>42953</v>
       </c>
@@ -3251,8 +3908,11 @@
       <c r="C219">
         <v>20.65</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>243.91666666666666</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>42954</v>
       </c>
@@ -3262,8 +3922,11 @@
       <c r="C220">
         <v>21.44166667</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>262.04166666666669</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>42955</v>
       </c>
@@ -3273,8 +3936,11 @@
       <c r="C221">
         <v>22.633333329999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>272.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>42956</v>
       </c>
@@ -3284,8 +3950,11 @@
       <c r="C222">
         <v>23.074999999999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>276.58333333333331</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>42957</v>
       </c>
@@ -3295,8 +3964,11 @@
       <c r="C223">
         <v>22.524999999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>276.20833333333331</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>42958</v>
       </c>
@@ -3306,8 +3978,11 @@
       <c r="C224">
         <v>20.725000000000001</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>247.875</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>42959</v>
       </c>
@@ -3317,8 +3992,11 @@
       <c r="C225">
         <v>18.103571429999999</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>42960</v>
       </c>
@@ -3328,8 +4006,11 @@
       <c r="C226">
         <v>18.114285710000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>181.66666666666666</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>42961</v>
       </c>
@@ -3339,8 +4020,11 @@
       <c r="C227">
         <v>17.943999999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>255.16666666666666</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>42962</v>
       </c>
@@ -3350,8 +4034,11 @@
       <c r="C228">
         <v>19.3125</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>287.58333333333331</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>42963</v>
       </c>
@@ -3361,8 +4048,11 @@
       <c r="C229">
         <v>20.44166667</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>281.70833333333331</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>42964</v>
       </c>
@@ -3372,8 +4062,11 @@
       <c r="C230">
         <v>19.617857140000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>263.125</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>42965</v>
       </c>
@@ -3383,8 +4076,11 @@
       <c r="C231">
         <v>19.149999999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>262.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>42966</v>
       </c>
@@ -3394,8 +4090,11 @@
       <c r="C232">
         <v>19.05833333</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>277.375</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>42967</v>
       </c>
@@ -3405,8 +4104,11 @@
       <c r="C233">
         <v>19.104166670000001</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>242.20833333333334</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>42968</v>
       </c>
@@ -3416,8 +4118,11 @@
       <c r="C234">
         <v>20.62916667</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>274.125</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>42969</v>
       </c>
@@ -3427,8 +4132,11 @@
       <c r="C235">
         <v>23.008333329999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>261.33333333333331</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>42970</v>
       </c>
@@ -3438,8 +4146,11 @@
       <c r="C236">
         <v>19.178571430000002</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>200.20833333333334</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>42971</v>
       </c>
@@ -3449,8 +4160,11 @@
       <c r="C237">
         <v>17.88</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>237.125</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>42972</v>
       </c>
@@ -3460,8 +4174,11 @@
       <c r="C238">
         <v>18.279166669999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>267.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>42973</v>
       </c>
@@ -3471,8 +4188,11 @@
       <c r="C239">
         <v>20.345833330000001</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>270.33333333333331</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>42974</v>
       </c>
@@ -3482,8 +4202,11 @@
       <c r="C240">
         <v>22.69166667</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>260.875</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>42975</v>
       </c>
@@ -3493,8 +4216,11 @@
       <c r="C241">
         <v>23.44166667</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>227.20833333333334</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>42976</v>
       </c>
@@ -3504,8 +4230,11 @@
       <c r="C242">
         <v>22.729166670000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>229.66666666666666</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>42977</v>
       </c>
@@ -3515,8 +4244,11 @@
       <c r="C243">
         <v>19.652000000000001</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>187.16666666666666</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>42978</v>
       </c>
@@ -3526,8 +4258,11 @@
       <c r="C244">
         <v>18.954838710000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>141.41666666666666</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>42979</v>
       </c>
@@ -3537,8 +4272,11 @@
       <c r="C245">
         <v>20.925000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>254.33333333333334</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>42980</v>
       </c>
@@ -3548,8 +4286,11 @@
       <c r="C246">
         <v>23.658333330000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>251.70833333333334</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>42981</v>
       </c>
@@ -3559,8 +4300,11 @@
       <c r="C247">
         <v>24.279166669999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>217.16666666666666</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>42982</v>
       </c>
@@ -3570,8 +4314,11 @@
       <c r="C248">
         <v>24.595833330000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>197.375</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>42983</v>
       </c>
@@ -3581,8 +4328,11 @@
       <c r="C249">
         <v>23.907407410000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>154.45833333333334</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>42984</v>
       </c>
@@ -3592,8 +4342,11 @@
       <c r="C250">
         <v>22.729166670000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>160.58333333333334</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>42985</v>
       </c>
@@ -3603,8 +4356,11 @@
       <c r="C251">
         <v>20.396153850000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>143.875</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>42986</v>
       </c>
@@ -3614,8 +4370,11 @@
       <c r="C252">
         <v>19.653333329999999</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>123.375</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>42987</v>
       </c>
@@ -3625,8 +4384,11 @@
       <c r="C253">
         <v>17.389285709999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>99.375</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>42988</v>
       </c>
@@ -3636,8 +4398,11 @@
       <c r="C254">
         <v>18.170833330000001</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <v>221.33333333333334</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>42989</v>
       </c>
@@ -3647,8 +4412,11 @@
       <c r="C255">
         <v>19.391666669999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>231.79166666666666</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>42990</v>
       </c>
@@ -3658,8 +4426,11 @@
       <c r="C256">
         <v>19.23076923</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>200.66666666666666</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>42991</v>
       </c>
@@ -3669,8 +4440,11 @@
       <c r="C257">
         <v>16.503846150000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>205.66666666666666</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>42992</v>
       </c>
@@ -3680,8 +4454,11 @@
       <c r="C258">
         <v>17.845833330000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>227.79166666666666</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>42993</v>
       </c>
@@ -3691,8 +4468,11 @@
       <c r="C259">
         <v>16.50416667</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>224.125</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>42994</v>
       </c>
@@ -3702,8 +4482,11 @@
       <c r="C260">
         <v>16.18333333</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>152.16666666666666</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>42995</v>
       </c>
@@ -3713,8 +4496,11 @@
       <c r="C261">
         <v>14.386206899999999</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>83.166666666666671</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>42996</v>
       </c>
@@ -3724,8 +4510,11 @@
       <c r="C262">
         <v>12.55277778</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>166.95833333333334</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>42997</v>
       </c>
@@ -3735,8 +4524,11 @@
       <c r="C263">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>42998</v>
       </c>
@@ -3746,8 +4538,11 @@
       <c r="C264">
         <v>12.057142860000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>124.08333333333333</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>42999</v>
       </c>
@@ -3757,8 +4552,11 @@
       <c r="C265">
         <v>12.80645161</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>143.625</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>43000</v>
       </c>
@@ -3768,8 +4566,11 @@
       <c r="C266">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>192.08333333333334</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>43001</v>
       </c>
@@ -3779,8 +4580,11 @@
       <c r="C267">
         <v>16.011111110000002</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>181.625</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>43002</v>
       </c>
@@ -3790,8 +4594,11 @@
       <c r="C268">
         <v>15.8375</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>182.20833333333334</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>43003</v>
       </c>
@@ -3801,8 +4608,11 @@
       <c r="C269">
         <v>16.454166669999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>92.708333333333329</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>43004</v>
       </c>
@@ -3812,8 +4622,11 @@
       <c r="C270">
         <v>16.837037039999998</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>188.45833333333334</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>43005</v>
       </c>
@@ -3823,8 +4636,11 @@
       <c r="C271">
         <v>18.470833330000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>191.95833333333334</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>43006</v>
       </c>
@@ -3834,8 +4650,11 @@
       <c r="C272">
         <v>20.929166670000001</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>190.20833333333334</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>43007</v>
       </c>
@@ -3845,8 +4664,11 @@
       <c r="C273">
         <v>16.096969699999999</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>112.58333333333333</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>43008</v>
       </c>
@@ -3856,8 +4678,11 @@
       <c r="C274">
         <v>13.96451613</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>43009</v>
       </c>
@@ -3867,8 +4692,11 @@
       <c r="C275">
         <v>13.183870969999999</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>132.83333333333334</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>43010</v>
       </c>
@@ -3878,8 +4706,11 @@
       <c r="C276">
         <v>11.93928571</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>111.75</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>43011</v>
       </c>
@@ -3889,8 +4720,11 @@
       <c r="C277">
         <v>12.559259259999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <v>176.625</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>43012</v>
       </c>
@@ -3900,8 +4734,11 @@
       <c r="C278">
         <v>12.89583333</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <v>168.20833333333334</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>43013</v>
       </c>
@@ -3911,8 +4748,11 @@
       <c r="C279">
         <v>12.667999999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <v>175.33333333333334</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>43014</v>
       </c>
@@ -3922,8 +4762,11 @@
       <c r="C280">
         <v>12.91923077</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>43015</v>
       </c>
@@ -3933,8 +4776,11 @@
       <c r="C281">
         <v>12.951851850000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <v>126.83333333333333</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>43016</v>
       </c>
@@ -3944,8 +4790,11 @@
       <c r="C282">
         <v>11.308</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <v>154.375</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>43017</v>
       </c>
@@ -3955,8 +4804,11 @@
       <c r="C283">
         <v>10.7137931</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>152.83333333333334</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>43018</v>
       </c>
@@ -3966,8 +4818,11 @@
       <c r="C284">
         <v>10.62</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>66.916666666666671</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>43019</v>
       </c>
@@ -3977,8 +4832,11 @@
       <c r="C285">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>98.916666666666671</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>43020</v>
       </c>
@@ -3988,8 +4846,11 @@
       <c r="C286">
         <v>8.8181818179999993</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>47.291666666666664</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>43021</v>
       </c>
@@ -3999,8 +4860,11 @@
       <c r="C287">
         <v>8.59</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>43022</v>
       </c>
@@ -4010,8 +4874,11 @@
       <c r="C288">
         <v>8.2416666670000005</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <v>100.08333333333333</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>43023</v>
       </c>
@@ -4021,8 +4888,11 @@
       <c r="C289">
         <v>10.34166667</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <v>142.125</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>43024</v>
       </c>
@@ -4032,8 +4902,11 @@
       <c r="C290">
         <v>10.82580645</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <v>136.66666666666666</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>43025</v>
       </c>
@@ -4043,8 +4916,11 @@
       <c r="C291">
         <v>12.043333329999999</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <v>70.083333333333329</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>43026</v>
       </c>
@@ -4054,8 +4930,11 @@
       <c r="C292">
         <v>12.070370369999999</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <v>48.708333333333336</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>43027</v>
       </c>
@@ -4065,8 +4944,11 @@
       <c r="C293">
         <v>11.28214286</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>43028</v>
       </c>
@@ -4076,8 +4958,11 @@
       <c r="C294">
         <v>9.7516129029999998</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294">
+        <v>80.708333333333329</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>43029</v>
       </c>
@@ -4087,8 +4972,11 @@
       <c r="C295">
         <v>10.167857140000001</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295">
+        <v>36.041666666666664</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>43030</v>
       </c>
@@ -4098,8 +4986,11 @@
       <c r="C296">
         <v>13.16666667</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <v>100.33333333333333</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>43031</v>
       </c>
@@ -4109,8 +5000,11 @@
       <c r="C297">
         <v>12.560869569999999</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <v>105.08333333333333</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>43032</v>
       </c>
@@ -4120,8 +5014,11 @@
       <c r="C298">
         <v>12.038095240000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>43033</v>
       </c>
@@ -4131,8 +5028,11 @@
       <c r="C299">
         <v>11.31538462</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>43034</v>
       </c>
@@ -4142,8 +5042,11 @@
       <c r="C300">
         <v>11.989285710000001</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>43035</v>
       </c>
@@ -4153,8 +5056,11 @@
       <c r="C301">
         <v>12.04</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <v>123.66666666666667</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>43036</v>
       </c>
@@ -4164,8 +5070,11 @@
       <c r="C302">
         <v>10.32</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <v>123.41666666666667</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>43037</v>
       </c>
@@ -4175,8 +5084,11 @@
       <c r="C303">
         <v>9.9437499999999996</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <v>70.083333333333329</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>43038</v>
       </c>
@@ -4186,8 +5098,11 @@
       <c r="C304">
         <v>9.7703703700000002</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304">
+        <v>124.54166666666667</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>43039</v>
       </c>
@@ -4197,8 +5112,11 @@
       <c r="C305">
         <v>8.6519999999999992</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <v>108.66666666666667</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>43040</v>
       </c>
@@ -4208,8 +5126,11 @@
       <c r="C306">
         <v>10.578125</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>77.416666666666671</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>43041</v>
       </c>
@@ -4219,8 +5140,11 @@
       <c r="C307">
         <v>7.8666666669999996</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <v>26.041666666666668</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>43042</v>
       </c>
@@ -4230,8 +5154,11 @@
       <c r="C308">
         <v>2.9849999999999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <v>29.791666666666668</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>43043</v>
       </c>
@@ -4241,8 +5168,11 @@
       <c r="C309">
         <v>3.9125000000000001</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>43044</v>
       </c>
@@ -4252,8 +5182,11 @@
       <c r="C310">
         <v>3.2749999999999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <v>13.916666666666666</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>43045</v>
       </c>
@@ -4263,8 +5196,11 @@
       <c r="C311">
         <v>4.8458333329999999</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <v>107.45833333333333</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>43046</v>
       </c>
@@ -4274,8 +5210,11 @@
       <c r="C312">
         <v>5.95</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>43047</v>
       </c>
@@ -4285,8 +5224,11 @@
       <c r="C313">
         <v>9.1374999999999993</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <v>39.791666666666664</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>43048</v>
       </c>
@@ -4296,8 +5238,11 @@
       <c r="C314">
         <v>8.423076923</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <v>28.541666666666668</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>43049</v>
       </c>
@@ -4307,8 +5252,11 @@
       <c r="C315">
         <v>7.1964285710000002</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>43050</v>
       </c>
@@ -4318,8 +5266,11 @@
       <c r="C316">
         <v>7.7960000000000003</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316">
+        <v>31.375</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>43051</v>
       </c>
@@ -4329,8 +5280,11 @@
       <c r="C317">
         <v>10.204166669999999</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <v>58.416666666666664</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>43052</v>
       </c>
@@ -4340,8 +5294,11 @@
       <c r="C318">
         <v>9.6111111109999996</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>57.708333333333336</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>43053</v>
       </c>
@@ -4351,8 +5308,11 @@
       <c r="C319">
         <v>10.37083333</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <v>45.833333333333336</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>43054</v>
       </c>
@@ -4362,8 +5322,11 @@
       <c r="C320">
         <v>8.6120000000000001</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>43055</v>
       </c>
@@ -4373,8 +5336,11 @@
       <c r="C321">
         <v>7.039393939</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>24.041666666666668</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>43056</v>
       </c>
@@ -4384,8 +5350,11 @@
       <c r="C322">
         <v>7.6407407410000001</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <v>59.416666666666664</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>43057</v>
       </c>
@@ -4395,8 +5364,11 @@
       <c r="C323">
         <v>8.5666666669999998</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <v>69.125</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>43058</v>
       </c>
@@ -4406,8 +5378,11 @@
       <c r="C324">
         <v>6.8178571430000003</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <v>23.625</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>43059</v>
       </c>
@@ -4417,8 +5392,11 @@
       <c r="C325">
         <v>8.5512195119999994</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <v>25.791666666666668</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>43060</v>
       </c>
@@ -4428,8 +5406,11 @@
       <c r="C326">
         <v>9.1846153850000007</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326">
+        <v>11.333333333333334</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>43061</v>
       </c>
@@ -4439,8 +5420,11 @@
       <c r="C327">
         <v>15.39285714</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <v>33.916666666666664</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>43062</v>
       </c>
@@ -4450,8 +5434,11 @@
       <c r="C328">
         <v>12.680952380000001</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>43063</v>
       </c>
@@ -4461,8 +5448,11 @@
       <c r="C329">
         <v>9.6839999999999993</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>43064</v>
       </c>
@@ -4472,8 +5462,11 @@
       <c r="C330">
         <v>8.4039999999999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <v>28.875</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>43065</v>
       </c>
@@ -4483,8 +5476,11 @@
       <c r="C331">
         <v>9.5866666669999994</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <v>38.416666666666664</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>43066</v>
       </c>
@@ -4494,8 +5490,11 @@
       <c r="C332">
         <v>7.7566666670000002</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>43067</v>
       </c>
@@ -4505,8 +5504,11 @@
       <c r="C333">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>43068</v>
       </c>
@@ -4516,8 +5518,11 @@
       <c r="C334">
         <v>7.9703703700000004</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <v>35.958333333333336</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>43069</v>
       </c>
@@ -4527,8 +5532,11 @@
       <c r="C335">
         <v>7.4111111110000003</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <v>22.958333333333332</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>43070</v>
       </c>
@@ -4538,8 +5546,11 @@
       <c r="C336">
         <v>7.3777777779999996</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336">
+        <v>23.625</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>43071</v>
       </c>
@@ -4549,8 +5560,11 @@
       <c r="C337">
         <v>6.1387096769999996</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337">
+        <v>15.958333333333334</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>43072</v>
       </c>
@@ -4560,8 +5574,11 @@
       <c r="C338">
         <v>6.1387096769999996</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338">
+        <v>37.708333333333336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>43073</v>
       </c>
@@ -4571,8 +5588,11 @@
       <c r="C339">
         <v>3.781081081</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>43074</v>
       </c>
@@ -4582,8 +5602,11 @@
       <c r="C340">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <v>71.208333333333329</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>43075</v>
       </c>
@@ -4593,8 +5616,11 @@
       <c r="C341">
         <v>5.84</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>43076</v>
       </c>
@@ -4604,8 +5630,11 @@
       <c r="C342">
         <v>4.1291666669999998</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <v>74.791666666666671</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>43077</v>
       </c>
@@ -4615,8 +5644,11 @@
       <c r="C343">
         <v>1.2102564099999999</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <v>72.833333333333329</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>43078</v>
       </c>
@@ -4626,8 +5658,11 @@
       <c r="C344">
         <v>1.2352941180000001</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344">
+        <v>63.708333333333336</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>43079</v>
       </c>
@@ -4637,8 +5672,11 @@
       <c r="C345">
         <v>3.3833333329999999</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <v>63.083333333333336</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>43080</v>
       </c>
@@ -4648,8 +5686,11 @@
       <c r="C346">
         <v>1.5062500000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <v>70.958333333333329</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>43081</v>
       </c>
@@ -4659,8 +5700,11 @@
       <c r="C347">
         <v>4.1041666670000003</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <v>62.708333333333336</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>43082</v>
       </c>
@@ -4670,8 +5714,11 @@
       <c r="C348">
         <v>6.108333333</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>43083</v>
       </c>
@@ -4681,8 +5728,11 @@
       <c r="C349">
         <v>4.7416666669999996</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>43084</v>
       </c>
@@ -4692,8 +5742,11 @@
       <c r="C350">
         <v>5.4965517239999997</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <v>60.166666666666664</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>43085</v>
       </c>
@@ -4703,8 +5756,11 @@
       <c r="C351">
         <v>5.4129032260000001</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <v>63.375</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>43086</v>
       </c>
@@ -4714,8 +5770,11 @@
       <c r="C352">
         <v>8.0642857140000004</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>43087</v>
       </c>
@@ -4725,8 +5784,11 @@
       <c r="C353">
         <v>8.0625</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <v>62.375</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>43088</v>
       </c>
@@ -4736,8 +5798,11 @@
       <c r="C354">
         <v>6.7852941180000004</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <v>64.291666666666671</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>43089</v>
       </c>
@@ -4747,8 +5812,11 @@
       <c r="C355">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>43090</v>
       </c>
@@ -4758,8 +5826,11 @@
       <c r="C356">
         <v>1.7269230769999999</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>43091</v>
       </c>
@@ -4769,8 +5840,11 @@
       <c r="C357">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <v>62.791666666666664</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>43092</v>
       </c>
@@ -4780,8 +5854,11 @@
       <c r="C358">
         <v>1.1125</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358">
+        <v>71.458333333333329</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>43093</v>
       </c>
@@ -4791,8 +5868,11 @@
       <c r="C359">
         <v>0.28571428599999998</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359">
+        <v>66.208333333333329</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>43094</v>
       </c>
@@ -4802,8 +5882,11 @@
       <c r="C360">
         <v>0.66585365900000004</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <v>67.208333333333329</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>43095</v>
       </c>
@@ -4813,8 +5896,11 @@
       <c r="C361">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>43096</v>
       </c>
@@ -4824,8 +5910,11 @@
       <c r="C362">
         <v>2.8206896549999998</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <v>67.125</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>43097</v>
       </c>
@@ -4835,8 +5924,11 @@
       <c r="C363">
         <v>6.8624999999999998</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <v>65.125</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>43098</v>
       </c>
@@ -4846,8 +5938,11 @@
       <c r="C364">
         <v>8.2886363640000003</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <v>65.083333333333329</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>43099</v>
       </c>
@@ -4857,8 +5952,11 @@
       <c r="C365">
         <v>7.1382352940000002</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>43100</v>
       </c>
@@ -4867,6 +5965,9 @@
       </c>
       <c r="C366">
         <v>3.53</v>
+      </c>
+      <c r="D366">
+        <v>68.75</v>
       </c>
     </row>
   </sheetData>
